--- a/Cleaned_Affiliate_Report.xlsx
+++ b/Cleaned_Affiliate_Report.xlsx
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MR KIKI MICHEAL</t>
+          <t>MR KIKI MICHAEL</t>
         </is>
       </c>
       <c r="F20" t="n">
